--- a/medicine/Psychotrope/Vignoble_du_Swartland/Vignoble_du_Swartland.xlsx
+++ b/medicine/Psychotrope/Vignoble_du_Swartland/Vignoble_du_Swartland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble du Swartland est établi dans la région du Swartland, elle-même située dans la province du Cap-Occidental, dans l’ouest de l’Afrique du Sud.
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Littéralement, Swartland signifie en Afrikaans : Terre (Land) Noire (Swart).
-Des vignes ont été plantées dans le Swartland par les agriculteurs locaux, ils contribuent à la création de la première coopérative viti-vinicole en 1948[1].
-Des vignes de chenin sont plantées dans les années 1960 pour alimenter l'expansion du vin blanc en Afrique du Sud[2].
-En 1997, Eben Sadie, est le premier producteur indépendant à s'installer dans la région[3], dont le premier vin est produit en 2000 (Syrah, Mourvèdre), puis un second vin en 2002 (chenin majoritaire). Ce sont ces vins qui lanceront la mode et l'encépagement de la région[2].
+Des vignes ont été plantées dans le Swartland par les agriculteurs locaux, ils contribuent à la création de la première coopérative viti-vinicole en 1948.
+Des vignes de chenin sont plantées dans les années 1960 pour alimenter l'expansion du vin blanc en Afrique du Sud.
+En 1997, Eben Sadie, est le premier producteur indépendant à s'installer dans la région, dont le premier vin est produit en 2000 (Syrah, Mourvèdre), puis un second vin en 2002 (chenin majoritaire). Ce sont ces vins qui lanceront la mode et l'encépagement de la région.
 L'activité viticole s'est majoritairement développée entre les villes de Malmesbury et Riebeek-Kasteel, au sud-est de la région du Swartland. La majorité des vignerons sont jeunes, exploitant parfois les raisins de viticulteurs plus anciens qui ne transforment pas leur production en vin.
-En 2017, dans la sous-région du Paaderberg, un projet d'exploitation minière de sable est lancé. Cela crée une polémique et déclenche le lancement d'une pétition pour l’abandon du projet afin de préserver la zone[4].
+En 2017, dans la sous-région du Paaderberg, un projet d'exploitation minière de sable est lancé. Cela crée une polémique et déclenche le lancement d'une pétition pour l’abandon du projet afin de préserver la zone.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le climat chaud et sec est favorable à une croissance saine de la vigne.
 </t>
@@ -579,7 +595,9 @@
           <t>Pédologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sols sont en partie composés de granites et de schistes, souvent sableux.
 </t>
@@ -612,11 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viticulture
-L'irrigation est quasi indispensable pour la viticulture en raison du climat, elle n'est cependant pas pratiquée par tous les vignerons, certaines vieilles vignes possédant un système racinaire assez développé pour résister à la sécheresse estivale. 
-Cépages
-Le chenin est planté majoritairement en blanc. On trouve également du colombard, autrefois surtout destiné à la distillation.
-La syrah est majoritairement plantée en rouge. On trouve également du cabernet sauvignon, du cinsault, du pinotage.
+          <t>Viticulture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'irrigation est quasi indispensable pour la viticulture en raison du climat, elle n'est cependant pas pratiquée par tous les vignerons, certaines vieilles vignes possédant un système racinaire assez développé pour résister à la sécheresse estivale. 
 </t>
         </is>
       </c>
@@ -642,13 +662,60 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Viticulture et œnologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Viticulture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chenin est planté majoritairement en blanc. On trouve également du colombard, autrefois surtout destiné à la distillation.
+La syrah est majoritairement plantée en rouge. On trouve également du cabernet sauvignon, du cinsault, du pinotage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vignoble_du_Swartland</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_du_Swartland</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Exploitations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartland Independants
-L'association de viticulteurs Swartland Independents regroupe des producteurs adhérant à une viticulture et une œnologie reflétant le plus fidèlement possible le terroir du Swartland[5]. Sans avoir le statut équivalent d'une appellation d'origine contrôlée, ils ne produisent que des vins venant des vignes de cette région, et dont l’élaboration s'est faite dans une cave locale. Ils prônent également une œnologie la plus naturelle possible (sans levurage, acidification, tanisage, collage, osmose inverse, etc.).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Swartland Independants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association de viticulteurs Swartland Independents regroupe des producteurs adhérant à une viticulture et une œnologie reflétant le plus fidèlement possible le terroir du Swartland. Sans avoir le statut équivalent d'une appellation d'origine contrôlée, ils ne produisent que des vins venant des vignes de cette région, et dont l’élaboration s'est faite dans une cave locale. Ils prônent également une œnologie la plus naturelle possible (sans levurage, acidification, tanisage, collage, osmose inverse, etc.).
 Ils n'autorisent que des vins produits avec un minimum de 90 % des cépages suivants : 
 Rouges : syrah (shiraz), mourvèdre, grenache noir, carignan, cinsault, tinta barocca, pinotage
 Blancs : chenin, grenache blanc, marsanne, roussanne, viognier, clairette, palomino (Fransdruif/Vaalblaar), sémillon (Groendruif)
@@ -660,32 +727,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Vignoble_du_Swartland</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vignoble_du_Swartland</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -707,10 +748,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vignoble_du_Swartland</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_du_Swartland</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Œnotourisme</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le festival Swartland Revolution a lieu tous les ans en novembre. Plusieurs événements et salons permettant de découvrir les vins sont organisés pendant l'année.
 Riebeek-Kasteel est la capitale officieuse du vin dans la région, et accueille un tourisme gastronomique.
